--- a/form_reporting_templates/Form-3BU.xlsx
+++ b/form_reporting_templates/Form-3BU.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\dev\git\BitBucket workspaces\IOTC-ws\R libs\workflow\forms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\dev\git\BitBucket workspaces\IOTC-ws\Data dissemination\iotc-reference-forms\form_reporting_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73F34946-5E1D-4FCB-8416-211CCB7736C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DA7B97D-BB05-47B4-805D-C60B1C4F4FA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="GFpj//VivYAPeIU08ZJg1Dux9toxRhSuIx/DIcXzwdN7RVpS32MIopnBIf/zfwa+hDKrfFh8CXTLPmmG/7iI6w==" workbookSaltValue="5rYiPYrZuKGJOy5hPiufCQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
@@ -87,12 +87,6 @@
     <t>Reporting entity</t>
   </si>
   <si>
-    <t>3-BU</t>
-  </si>
-  <si>
-    <t>IOTC form 3-BU | metadata</t>
-  </si>
-  <si>
     <t>Reporting month</t>
   </si>
   <si>
@@ -105,9 +99,6 @@
     <t>Day of month</t>
   </si>
   <si>
-    <t>IOTC form 3-BU | data</t>
-  </si>
-  <si>
     <t>Longitude</t>
   </si>
   <si>
@@ -127,6 +118,15 @@
   </si>
   <si>
     <t>Finalisation date</t>
+  </si>
+  <si>
+    <t>IOTC Form 3BU | data</t>
+  </si>
+  <si>
+    <t>IOTC Form 3BU | metadata</t>
+  </si>
+  <si>
+    <t>3BU</t>
   </si>
 </sst>
 </file>
@@ -1037,7 +1037,7 @@
     <row r="1" spans="2:8" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="50" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C2" s="51"/>
       <c r="D2" s="51"/>
@@ -1061,7 +1061,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="37" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E4" s="38"/>
       <c r="F4" s="36" t="s">
@@ -1109,7 +1109,7 @@
       <c r="D8" s="49"/>
       <c r="E8" s="28"/>
       <c r="F8" s="49" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G8" s="49"/>
       <c r="H8" s="24"/>
@@ -1130,12 +1130,12 @@
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="25"/>
       <c r="C10" s="26" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="28"/>
       <c r="F10" s="28" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="24"/>
@@ -1152,7 +1152,7 @@
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="25"/>
       <c r="C12" s="26" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="28"/>
@@ -1217,7 +1217,7 @@
       <c r="D18" s="5"/>
       <c r="E18" s="28"/>
       <c r="F18" s="26" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G18" s="5"/>
       <c r="H18" s="24"/>
@@ -1230,7 +1230,7 @@
       <c r="D19" s="5"/>
       <c r="E19" s="28"/>
       <c r="F19" s="28" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G19" s="5"/>
       <c r="H19" s="24"/>
@@ -1243,7 +1243,7 @@
       <c r="D20" s="5"/>
       <c r="E20" s="28"/>
       <c r="F20" s="26" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G20" s="5"/>
       <c r="H20" s="24"/>
@@ -1358,7 +1358,7 @@
       <c r="D32" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="mDRNm9WPbkdaqXveGw/QqP15ivgy6jOtAJbmHoPkuVEXfvjYgDjJDMIP4Put1SLsWe5KRHtyzBa1ChNgh3RQtQ==" saltValue="sL8YbatJRkMPzIJo+60fHQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="uDxuy1SHzv3bIQpNcMEfmNMKgS9mwtEkcmScOfZnSTEitHmQGPVcHAk9dOvhDeSlHJG+LYSJ9IN6v9zAxLP5fg==" saltValue="z3upYKpvq3Shm/MvOKj/8g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="4">
     <mergeCell ref="C30:G30"/>
     <mergeCell ref="C8:D8"/>
@@ -1408,7 +1408,7 @@
     </row>
     <row r="2" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="50" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C2" s="51"/>
       <c r="D2" s="51"/>
@@ -1426,22 +1426,22 @@
       </c>
       <c r="C4" s="59"/>
       <c r="D4" s="56" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E4" s="57"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="45" t="s">
-        <v>24</v>
-      </c>
       <c r="D5" s="42" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E5" s="43" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
@@ -1745,7 +1745,7 @@
       <c r="E55" s="18"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="hcz4YxxDIZvqMIWGaV/th2O6Fw7p0MmRD+xzlEG14EIBifM0Iu0YZ4qWY8+3EXMLPkXyTGo3bytNJi6uRNg1Nw==" saltValue="9qsPcz8q/ECHb3ZVgXeKxQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="jup0bFUlX0UMh/3tVgCKjzEcoevBwdh9gyogxCQx6y5xzWLLlAhdkfgK8ioWOEANT8wa4hwC1Fk5Fhl4dw3hqw==" saltValue="ugsWOwh3Fx9znwxvFI2JXg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="3">
     <mergeCell ref="B2:E3"/>
     <mergeCell ref="D4:E4"/>

--- a/form_reporting_templates/Form-3BU.xlsx
+++ b/form_reporting_templates/Form-3BU.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\dev\git\BitBucket workspaces\IOTC-ws\Data dissemination\iotc-reference-forms\form_reporting_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\echassot\Desktop\iotc-reference-forms\form_reporting_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DA7B97D-BB05-47B4-805D-C60B1C4F4FA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{610205BF-2B6E-4F3A-80F9-C82C2A1B9C9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="GFpj//VivYAPeIU08ZJg1Dux9toxRhSuIx/DIcXzwdN7RVpS32MIopnBIf/zfwa+hDKrfFh8CXTLPmmG/7iI6w==" workbookSaltValue="5rYiPYrZuKGJOy5hPiufCQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
@@ -51,9 +51,6 @@
     <t>General information</t>
   </si>
   <si>
-    <t>Flag country</t>
-  </si>
-  <si>
     <t>Reporting year</t>
   </si>
   <si>
@@ -127,6 +124,9 @@
   </si>
   <si>
     <t>3BU</t>
+  </si>
+  <si>
+    <t>Flag state</t>
   </si>
 </sst>
 </file>
@@ -1037,7 +1037,7 @@
     <row r="1" spans="2:8" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="50" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" s="51"/>
       <c r="D2" s="51"/>
@@ -1058,17 +1058,17 @@
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="35"/>
       <c r="C4" s="36" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" s="37" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E4" s="38"/>
       <c r="F4" s="36" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G4" s="39" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H4" s="40"/>
     </row>
@@ -1084,7 +1084,7 @@
     <row r="6" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B6" s="25"/>
       <c r="C6" s="32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" s="28"/>
       <c r="E6" s="28"/>
@@ -1109,7 +1109,7 @@
       <c r="D8" s="49"/>
       <c r="E8" s="28"/>
       <c r="F8" s="49" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G8" s="49"/>
       <c r="H8" s="24"/>
@@ -1130,12 +1130,12 @@
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="25"/>
       <c r="C10" s="26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="28"/>
       <c r="F10" s="28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="24"/>
@@ -1152,7 +1152,7 @@
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="25"/>
       <c r="C12" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="28"/>
@@ -1163,7 +1163,7 @@
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="25"/>
       <c r="C13" s="26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="28"/>
@@ -1212,12 +1212,12 @@
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="25"/>
       <c r="C18" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="28"/>
       <c r="F18" s="26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G18" s="5"/>
       <c r="H18" s="24"/>
@@ -1225,12 +1225,12 @@
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="25"/>
       <c r="C19" s="41" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="28"/>
       <c r="F19" s="28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G19" s="5"/>
       <c r="H19" s="24"/>
@@ -1238,12 +1238,12 @@
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="25"/>
       <c r="C20" s="41" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="28"/>
       <c r="F20" s="26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G20" s="5"/>
       <c r="H20" s="24"/>
@@ -1269,7 +1269,7 @@
     <row r="23" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B23" s="25"/>
       <c r="C23" s="32" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D23" s="33"/>
       <c r="E23" s="28"/>
@@ -1289,7 +1289,7 @@
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="25"/>
       <c r="C25" s="41" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="28"/>
@@ -1318,7 +1318,7 @@
     <row r="28" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B28" s="25"/>
       <c r="C28" s="32" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D28" s="27"/>
       <c r="E28" s="28"/>
@@ -1358,7 +1358,7 @@
       <c r="D32" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="uDxuy1SHzv3bIQpNcMEfmNMKgS9mwtEkcmScOfZnSTEitHmQGPVcHAk9dOvhDeSlHJG+LYSJ9IN6v9zAxLP5fg==" saltValue="z3upYKpvq3Shm/MvOKj/8g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="3gTY0ThbTEdO6SKtT6POBYFa0ddaS2PRCVj1fPLlAWJX+USGDLFi4KkuwhZUXL0tiRn52s4XJPuHroJLYdNatg==" saltValue="LU6/4m5r3SKJjjrike/3zA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="4">
     <mergeCell ref="C30:G30"/>
     <mergeCell ref="C8:D8"/>
@@ -1372,7 +1372,7 @@
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="C19" r:id="rId1" location="entities" xr:uid="{145A36E7-23E2-4F23-9423-3ABF5B1644A9}"/>
-    <hyperlink ref="C20" r:id="rId2" location="countries" xr:uid="{D830AF7F-6DD6-4CCC-B4E3-A0AB89AFD734}"/>
+    <hyperlink ref="C20" r:id="rId2" location="countries" display="Flag country" xr:uid="{D830AF7F-6DD6-4CCC-B4E3-A0AB89AFD734}"/>
     <hyperlink ref="C25" r:id="rId3" location="types" xr:uid="{D5D73A23-873B-4484-A869-D712A7A31856}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1408,7 +1408,7 @@
     </row>
     <row r="2" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="50" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" s="51"/>
       <c r="D2" s="51"/>
@@ -1422,26 +1422,26 @@
     </row>
     <row r="4" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="58" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="59"/>
       <c r="D4" s="56" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4" s="57"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="43" t="s">
         <v>19</v>
-      </c>
-      <c r="C5" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="43" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">

--- a/form_reporting_templates/Form-3BU.xlsx
+++ b/form_reporting_templates/Form-3BU.xlsx
@@ -5,13 +5,13 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\echassot\Desktop\iotc-reference-forms\form_reporting_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\dev\git\BitBucket workspaces\IOTC-ws\Data dissemination\iotc-reference-forms\form_reporting_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{610205BF-2B6E-4F3A-80F9-C82C2A1B9C9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42CC4B90-F279-4657-AE66-16FC1F05EED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="GFpj//VivYAPeIU08ZJg1Dux9toxRhSuIx/DIcXzwdN7RVpS32MIopnBIf/zfwa+hDKrfFh8CXTLPmmG/7iI6w==" workbookSaltValue="5rYiPYrZuKGJOy5hPiufCQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
+    <workbookView xWindow="28680" yWindow="1140" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>Focal point</t>
   </si>
@@ -127,6 +127,9 @@
   </si>
   <si>
     <t>Flag state</t>
+  </si>
+  <si>
+    <t>FI</t>
   </si>
 </sst>
 </file>
@@ -206,7 +209,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -237,6 +240,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="24">
     <border>
@@ -530,7 +539,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -682,6 +691,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1291,7 +1303,9 @@
       <c r="C25" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="D25" s="5"/>
+      <c r="D25" s="60" t="s">
+        <v>30</v>
+      </c>
       <c r="E25" s="28"/>
       <c r="F25" s="28"/>
       <c r="G25" s="28"/>
@@ -1358,7 +1372,7 @@
       <c r="D32" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="3gTY0ThbTEdO6SKtT6POBYFa0ddaS2PRCVj1fPLlAWJX+USGDLFi4KkuwhZUXL0tiRn52s4XJPuHroJLYdNatg==" saltValue="LU6/4m5r3SKJjjrike/3zA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Rr19WUKwz05otohuh4O7cfNI1RVvU3YLCam7ThgtOIp8Xru4k19yuRtEG/Wy/6rLIHsdsmaztUbqg6pV2dN1vA==" saltValue="LK6tvRsCtfLwaCDT5MB4XQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="4">
     <mergeCell ref="C30:G30"/>
     <mergeCell ref="C8:D8"/>

--- a/form_reporting_templates/Form-3BU.xlsx
+++ b/form_reporting_templates/Form-3BU.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\dev\git\BitBucket workspaces\IOTC-ws\Data dissemination\iotc-reference-forms\form_reporting_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42CC4B90-F279-4657-AE66-16FC1F05EED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{011C8939-F5AA-4975-AD5D-6450557FBD57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="GFpj//VivYAPeIU08ZJg1Dux9toxRhSuIx/DIcXzwdN7RVpS32MIopnBIf/zfwa+hDKrfFh8CXTLPmmG/7iI6w==" workbookSaltValue="5rYiPYrZuKGJOy5hPiufCQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="1140" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -72,9 +72,6 @@
     <t>Form</t>
   </si>
   <si>
-    <t>Main stratum</t>
-  </si>
-  <si>
     <t>1.0.0</t>
   </si>
   <si>
@@ -130,6 +127,9 @@
   </si>
   <si>
     <t>FI</t>
+  </si>
+  <si>
+    <t>Main elements</t>
   </si>
 </sst>
 </file>
@@ -647,6 +647,9 @@
     <xf numFmtId="49" fontId="7" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -691,9 +694,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1048,24 +1048,24 @@
   <sheetData>
     <row r="1" spans="2:8" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="52"/>
+      <c r="B2" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="53"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="53"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="55"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="56"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="35"/>
@@ -1073,14 +1073,14 @@
         <v>10</v>
       </c>
       <c r="D4" s="37" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E4" s="38"/>
       <c r="F4" s="36" t="s">
         <v>9</v>
       </c>
       <c r="G4" s="39" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H4" s="40"/>
     </row>
@@ -1115,15 +1115,15 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="25"/>
-      <c r="C8" s="49" t="s">
+      <c r="C8" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="49"/>
+      <c r="D8" s="50"/>
       <c r="E8" s="28"/>
-      <c r="F8" s="49" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="49"/>
+      <c r="F8" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="50"/>
       <c r="H8" s="24"/>
     </row>
     <row r="9" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1142,12 +1142,12 @@
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="25"/>
       <c r="C10" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="28"/>
       <c r="F10" s="28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="24"/>
@@ -1164,7 +1164,7 @@
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="25"/>
       <c r="C12" s="26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="28"/>
@@ -1229,7 +1229,7 @@
       <c r="D18" s="5"/>
       <c r="E18" s="28"/>
       <c r="F18" s="26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G18" s="5"/>
       <c r="H18" s="24"/>
@@ -1237,12 +1237,12 @@
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="25"/>
       <c r="C19" s="41" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="28"/>
       <c r="F19" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G19" s="5"/>
       <c r="H19" s="24"/>
@@ -1250,12 +1250,12 @@
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="25"/>
       <c r="C20" s="41" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="28"/>
       <c r="F20" s="26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G20" s="5"/>
       <c r="H20" s="24"/>
@@ -1301,10 +1301,10 @@
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="25"/>
       <c r="C25" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="60" t="s">
-        <v>30</v>
+        <v>12</v>
+      </c>
+      <c r="D25" s="46" t="s">
+        <v>29</v>
       </c>
       <c r="E25" s="28"/>
       <c r="F25" s="28"/>
@@ -1351,11 +1351,11 @@
     </row>
     <row r="30" spans="2:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="25"/>
-      <c r="C30" s="46"/>
-      <c r="D30" s="47"/>
-      <c r="E30" s="47"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="48"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="49"/>
       <c r="H30" s="24"/>
     </row>
     <row r="31" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1421,41 +1421,41 @@
       <c r="E1" s="14"/>
     </row>
     <row r="2" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="52"/>
+      <c r="B2" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="53"/>
     </row>
     <row r="3" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="53"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="55"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="56"/>
     </row>
     <row r="4" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="58" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="59"/>
-      <c r="D4" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="57"/>
+      <c r="B4" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="60"/>
+      <c r="D4" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="58"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="43" t="s">
         <v>18</v>
-      </c>
-      <c r="C5" s="45" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="43" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
@@ -1759,7 +1759,7 @@
       <c r="E55" s="18"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="jup0bFUlX0UMh/3tVgCKjzEcoevBwdh9gyogxCQx6y5xzWLLlAhdkfgK8ioWOEANT8wa4hwC1Fk5Fhl4dw3hqw==" saltValue="ugsWOwh3Fx9znwxvFI2JXg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="lDI6eNLMuzwciEY/MQa4/CELJv2tBFbhMsgcGiFF3nsCgkl1dNgyVIXxoRq3r95dzDoHFOhemhHPydcezlMlHw==" saltValue="aW9V9zRtgSGqJPSolyin2w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="3">
     <mergeCell ref="B2:E3"/>
     <mergeCell ref="D4:E4"/>

--- a/form_reporting_templates/Form-3BU.xlsx
+++ b/form_reporting_templates/Form-3BU.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\dev\git\BitBucket workspaces\IOTC-ws\Data dissemination\iotc-reference-forms\form_reporting_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\echassot\Desktop\iotc-reference-forms\form_reporting_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{011C8939-F5AA-4975-AD5D-6450557FBD57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97B5EF4E-5868-489B-97D7-810B2A22E83B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="GFpj//VivYAPeIU08ZJg1Dux9toxRhSuIx/DIcXzwdN7RVpS32MIopnBIf/zfwa+hDKrfFh8CXTLPmmG/7iI6w==" workbookSaltValue="5rYiPYrZuKGJOy5hPiufCQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
@@ -137,9 +137,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.0000000000"/>
+    <numFmt numFmtId="168" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -547,10 +547,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
@@ -694,6 +690,10 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -734,9 +734,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -774,7 +774,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -880,7 +880,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1022,7 +1022,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1048,331 +1048,331 @@
   <sheetData>
     <row r="1" spans="2:8" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="53"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="52"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="54"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="56"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="55"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="35"/>
-      <c r="C4" s="36" t="s">
+      <c r="B4" s="34"/>
+      <c r="C4" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="D4" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="38"/>
-      <c r="F4" s="36" t="s">
+      <c r="E4" s="37"/>
+      <c r="F4" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="39" t="s">
+      <c r="G4" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="40"/>
+      <c r="H4" s="39"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="25"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="24"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="23"/>
     </row>
     <row r="6" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B6" s="25"/>
-      <c r="C6" s="32" t="s">
+      <c r="B6" s="24"/>
+      <c r="C6" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="24"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="23"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="25"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="24"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="23"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="25"/>
-      <c r="C8" s="50" t="s">
+      <c r="B8" s="24"/>
+      <c r="C8" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="50"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="50" t="s">
+      <c r="D8" s="49"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="50"/>
-      <c r="H8" s="24"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="23"/>
     </row>
     <row r="9" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="25"/>
-      <c r="C9" s="34" t="s">
+      <c r="B9" s="24"/>
+      <c r="C9" s="33" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="3"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="34" t="s">
+      <c r="E9" s="27"/>
+      <c r="F9" s="33" t="s">
         <v>1</v>
       </c>
       <c r="G9" s="3"/>
-      <c r="H9" s="24"/>
+      <c r="H9" s="23"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="25"/>
-      <c r="C10" s="26" t="s">
+      <c r="B10" s="24"/>
+      <c r="C10" s="25" t="s">
         <v>23</v>
       </c>
       <c r="D10" s="3"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28" t="s">
+      <c r="E10" s="27"/>
+      <c r="F10" s="27" t="s">
         <v>23</v>
       </c>
       <c r="G10" s="3"/>
-      <c r="H10" s="24"/>
+      <c r="H10" s="23"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="25"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="24"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="23"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="25"/>
-      <c r="C12" s="26" t="s">
+      <c r="B12" s="24"/>
+      <c r="C12" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="24"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="23"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="25"/>
-      <c r="C13" s="26" t="s">
+      <c r="B13" s="24"/>
+      <c r="C13" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="24"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="23"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="25"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="24"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="23"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="25"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="24"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="23"/>
     </row>
     <row r="16" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B16" s="25"/>
-      <c r="C16" s="32" t="s">
+      <c r="B16" s="24"/>
+      <c r="C16" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="24"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="23"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="25"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="24"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="23"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="25"/>
-      <c r="C18" s="26" t="s">
+      <c r="B18" s="24"/>
+      <c r="C18" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="26" t="s">
+      <c r="D18" s="4"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G18" s="5"/>
-      <c r="H18" s="24"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="23"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="25"/>
-      <c r="C19" s="41" t="s">
+      <c r="B19" s="24"/>
+      <c r="C19" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28" t="s">
+      <c r="D19" s="4"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="G19" s="5"/>
-      <c r="H19" s="24"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="23"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="25"/>
-      <c r="C20" s="41" t="s">
+      <c r="B20" s="24"/>
+      <c r="C20" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="26" t="s">
+      <c r="D20" s="4"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="G20" s="5"/>
-      <c r="H20" s="24"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="23"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="25"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="24"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="23"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="25"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="24"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="23"/>
     </row>
     <row r="23" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B23" s="25"/>
-      <c r="C23" s="32" t="s">
+      <c r="B23" s="24"/>
+      <c r="C23" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="D23" s="33"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="24"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="23"/>
     </row>
     <row r="24" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="25"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="24"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="23"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="25"/>
-      <c r="C25" s="41" t="s">
+      <c r="B25" s="24"/>
+      <c r="C25" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="46" t="s">
+      <c r="D25" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="24"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="23"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="25"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="24"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="23"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="25"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="24"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="23"/>
     </row>
     <row r="28" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B28" s="25"/>
-      <c r="C28" s="32" t="s">
+      <c r="B28" s="24"/>
+      <c r="C28" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="D28" s="27"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="24"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="23"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="25"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="24"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="23"/>
     </row>
     <row r="30" spans="2:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="25"/>
-      <c r="C30" s="47"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="48"/>
-      <c r="G30" s="49"/>
-      <c r="H30" s="24"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="48"/>
+      <c r="H30" s="23"/>
     </row>
     <row r="31" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="21"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="23"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="22"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C32" s="1"/>
       <c r="D32" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Rr19WUKwz05otohuh4O7cfNI1RVvU3YLCam7ThgtOIp8Xru4k19yuRtEG/Wy/6rLIHsdsmaztUbqg6pV2dN1vA==" saltValue="LK6tvRsCtfLwaCDT5MB4XQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="kfjFs+T8qiyZN5lJEmwe9XHpRVnONR/qwBqCgEB5SeQn2suGk9J0ZUeWNO9LZ9rJDvNS6N36Kz7qRIRmuVsZvg==" saltValue="E0WD02Bp/Qe+/h3DSoSNFw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="4">
     <mergeCell ref="C30:G30"/>
     <mergeCell ref="C8:D8"/>
@@ -1408,355 +1408,355 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18" style="13" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" style="19" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="20" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" style="12" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" style="18" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" style="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="6"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
     </row>
     <row r="2" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="53"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="52"/>
     </row>
     <row r="3" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="54"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="56"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="55"/>
     </row>
     <row r="4" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="60"/>
-      <c r="D4" s="57" t="s">
+      <c r="C4" s="59"/>
+      <c r="D4" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="58"/>
+      <c r="E4" s="57"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="42" t="s">
+      <c r="D5" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="43" t="s">
+      <c r="E5" s="42" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="7"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="16"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="15"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="8"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="18"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="17"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="8"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="18"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="17"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="8"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="18"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="17"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="8"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="18"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="17"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="8"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="18"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="17"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="8"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="18"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="17"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="8"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="18"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="17"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="8"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="18"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="17"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="8"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="18"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="17"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="8"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="18"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="17"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="8"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="18"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="17"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="8"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="18"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="17"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="8"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="18"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="17"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="8"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="18"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="17"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="8"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="18"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="17"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="8"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="18"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="17"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="8"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="18"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="17"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="8"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="18"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="17"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="8"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="18"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="17"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="8"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="18"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="17"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="8"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="18"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="17"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="8"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="18"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="17"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="8"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="18"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="17"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="8"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="18"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="17"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="8"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="18"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="17"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="8"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="18"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="17"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="8"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="18"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="17"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="8"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="18"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="17"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35" s="8"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="18"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="17"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B36" s="8"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="18"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="17"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B37" s="8"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="18"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="17"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B38" s="8"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="18"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="17"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B39" s="8"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="18"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="17"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B40" s="8"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="18"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="17"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B41" s="8"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="18"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="17"/>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B42" s="8"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="18"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="17"/>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B43" s="8"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="18"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="17"/>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B44" s="8"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="18"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="17"/>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B45" s="8"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="18"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="17"/>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B46" s="8"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="18"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="17"/>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B47" s="8"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="18"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="17"/>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B48" s="8"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="18"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="17"/>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B49" s="8"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="18"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="17"/>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B50" s="8"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="18"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="17"/>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B51" s="8"/>
-      <c r="C51" s="12"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="18"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="17"/>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B52" s="8"/>
-      <c r="C52" s="12"/>
-      <c r="D52" s="17"/>
-      <c r="E52" s="18"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="17"/>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B53" s="8"/>
-      <c r="C53" s="12"/>
-      <c r="D53" s="17"/>
-      <c r="E53" s="18"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="17"/>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B54" s="8"/>
-      <c r="C54" s="12"/>
-      <c r="D54" s="17"/>
-      <c r="E54" s="18"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="17"/>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B55" s="8"/>
-      <c r="C55" s="12"/>
-      <c r="D55" s="17"/>
-      <c r="E55" s="18"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="17"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="lDI6eNLMuzwciEY/MQa4/CELJv2tBFbhMsgcGiFF3nsCgkl1dNgyVIXxoRq3r95dzDoHFOhemhHPydcezlMlHw==" saltValue="aW9V9zRtgSGqJPSolyin2w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>

--- a/form_reporting_templates/Form-3BU.xlsx
+++ b/form_reporting_templates/Form-3BU.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\echassot\Desktop\iotc-reference-forms\form_reporting_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97B5EF4E-5868-489B-97D7-810B2A22E83B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99E0A69B-C00B-4428-96A3-0391F22B4C8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="GFpj//VivYAPeIU08ZJg1Dux9toxRhSuIx/DIcXzwdN7RVpS32MIopnBIf/zfwa+hDKrfFh8CXTLPmmG/7iI6w==" workbookSaltValue="5rYiPYrZuKGJOy5hPiufCQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
@@ -39,9 +39,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
-    <t>Focal point</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -130,6 +127,9 @@
   </si>
   <si>
     <t>Main elements</t>
+  </si>
+  <si>
+    <t>Liaison officer</t>
   </si>
 </sst>
 </file>
@@ -137,9 +137,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="0.0000000000"/>
-    <numFmt numFmtId="168" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0000000000"/>
+    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -542,7 +542,7 @@
   <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -575,27 +575,27 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
@@ -620,7 +620,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -631,10 +631,10 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="7" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -646,6 +646,10 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -679,10 +683,10 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -690,10 +694,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1048,39 +1048,39 @@
   <sheetData>
     <row r="1" spans="2:8" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="52"/>
+      <c r="B2" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="53"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="53"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="55"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="56"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="34"/>
       <c r="C4" s="35" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="36" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E4" s="37"/>
       <c r="F4" s="35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G4" s="38" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H4" s="39"/>
     </row>
@@ -1096,7 +1096,7 @@
     <row r="6" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B6" s="24"/>
       <c r="C6" s="31" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D6" s="27"/>
       <c r="E6" s="27"/>
@@ -1115,26 +1115,26 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="24"/>
-      <c r="C8" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" s="49"/>
+      <c r="C8" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="50"/>
       <c r="E8" s="27"/>
-      <c r="F8" s="49" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="49"/>
+      <c r="F8" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="50"/>
       <c r="H8" s="23"/>
     </row>
     <row r="9" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="24"/>
       <c r="C9" s="33" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="27"/>
       <c r="F9" s="33" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="23"/>
@@ -1142,12 +1142,12 @@
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="24"/>
       <c r="C10" s="25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="27"/>
       <c r="F10" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="23"/>
@@ -1164,9 +1164,9 @@
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="24"/>
       <c r="C12" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="60"/>
+        <v>23</v>
+      </c>
+      <c r="D12" s="46"/>
       <c r="E12" s="27"/>
       <c r="F12" s="27"/>
       <c r="G12" s="27"/>
@@ -1175,9 +1175,9 @@
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="24"/>
       <c r="C13" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="60"/>
+        <v>7</v>
+      </c>
+      <c r="D13" s="46"/>
       <c r="E13" s="27"/>
       <c r="F13" s="27"/>
       <c r="G13" s="27"/>
@@ -1204,7 +1204,7 @@
     <row r="16" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B16" s="24"/>
       <c r="C16" s="31" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" s="27"/>
       <c r="E16" s="27"/>
@@ -1224,12 +1224,12 @@
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="24"/>
       <c r="C18" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="27"/>
       <c r="F18" s="25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="23"/>
@@ -1237,12 +1237,12 @@
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="24"/>
       <c r="C19" s="40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="27"/>
       <c r="F19" s="27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="23"/>
@@ -1250,12 +1250,12 @@
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="24"/>
       <c r="C20" s="40" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="27"/>
       <c r="F20" s="25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="23"/>
@@ -1281,7 +1281,7 @@
     <row r="23" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B23" s="24"/>
       <c r="C23" s="31" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" s="32"/>
       <c r="E23" s="27"/>
@@ -1301,10 +1301,10 @@
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="24"/>
       <c r="C25" s="40" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D25" s="45" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E25" s="27"/>
       <c r="F25" s="27"/>
@@ -1332,7 +1332,7 @@
     <row r="28" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B28" s="24"/>
       <c r="C28" s="31" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D28" s="26"/>
       <c r="E28" s="27"/>
@@ -1351,11 +1351,11 @@
     </row>
     <row r="30" spans="2:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="24"/>
-      <c r="C30" s="46"/>
-      <c r="D30" s="47"/>
-      <c r="E30" s="47"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="48"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="49"/>
       <c r="H30" s="23"/>
     </row>
     <row r="31" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1372,7 +1372,7 @@
       <c r="D32" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="kfjFs+T8qiyZN5lJEmwe9XHpRVnONR/qwBqCgEB5SeQn2suGk9J0ZUeWNO9LZ9rJDvNS6N36Kz7qRIRmuVsZvg==" saltValue="E0WD02Bp/Qe+/h3DSoSNFw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="gZi0/8zQ6Z+JSxc9T7AuIa9QBOagZVX+0gv8qjBSF9OuqX0wTv3ONwuoC9QBt/Smuy0vAh8gCsMNg3KYGVVwFg==" saltValue="5fb7QtXAqf4qX5yWXRXqmw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="4">
     <mergeCell ref="C30:G30"/>
     <mergeCell ref="C8:D8"/>
@@ -1421,41 +1421,41 @@
       <c r="E1" s="13"/>
     </row>
     <row r="2" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="50" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="52"/>
+      <c r="B2" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="53"/>
     </row>
     <row r="3" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="53"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="55"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="56"/>
     </row>
     <row r="4" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="58" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="59"/>
-      <c r="D4" s="56" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="57"/>
+      <c r="B4" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="60"/>
+      <c r="D4" s="57" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="58"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="42" t="s">
         <v>17</v>
-      </c>
-      <c r="C5" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="42" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
